--- a/biology/Médecine/Granule_(pharmacie_galénique)/Granule_(pharmacie_galénique).xlsx
+++ b/biology/Médecine/Granule_(pharmacie_galénique)/Granule_(pharmacie_galénique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Granule_(pharmacie_gal%C3%A9nique)</t>
+          <t>Granule_(pharmacie_galénique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un granule est une forme pharmaceutique désignant traditionnellement une bille de sucre sur laquelle sont déposés la substance active et les excipients.
 Les granules sont utilisés dans les gélules, en sachet ou dans des tubes en homéopathie. Ils sont aussi parfois compressés pour obtenir un comprimé pouvant se désagréger sous forme de granule une fois ingéré.
